--- a/biology/Microbiologie/Pascale_Cossart/Pascale_Cossart.xlsx
+++ b/biology/Microbiologie/Pascale_Cossart/Pascale_Cossart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pascale Cossart, née le 21 mars 1948 à Cambrai, est une biologiste française, spécialisée en microbiologie cellulaire, professeur de classe exceptionnelle à l'Institut Pasteur depuis 2006. Membre de l'Académie des sciences depuis 2002 après avoir été correspondante en 1999, elle en est secrétaire perpétuel honoraire et a été  secrétaire perpétuel pour la deuxième section, qui couvre la chimie, la biologie et la médecine, du 1er janvier 2016 au 31 décembre 2021 [1]. Depuis janvier 2022 elle est visiting scientist à l'EMBL Heidelberg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascale Cossart, née le 21 mars 1948 à Cambrai, est une biologiste française, spécialisée en microbiologie cellulaire, professeur de classe exceptionnelle à l'Institut Pasteur depuis 2006. Membre de l'Académie des sciences depuis 2002 après avoir été correspondante en 1999, elle en est secrétaire perpétuel honoraire et a été  secrétaire perpétuel pour la deuxième section, qui couvre la chimie, la biologie et la médecine, du 1er janvier 2016 au 31 décembre 2021 . Depuis janvier 2022 elle est visiting scientist à l'EMBL Heidelberg.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pascale Cossart (née Gheerbrant) est originaire du Nord. Elle est née à Cambrai en 1948 et a vécu ses premières années à Arras. Issue d'une famille d'industriels, Pascale Cossart a le coup de foudre pour la science au lycée[2]. Elle étudie la chimie à Lille où elle décroche une maîtrise ès sciences. En 1971 elle obtient un Master of Science de l'université de Georgetown puis, en 1977, un doctorat ès sciences sous la direction de Georges Cohen à l'université Paris-VII. 
-Pascale Cossart a été directrice d'une unité de recherche à l'Institut Pasteur à partir de 1991 et nommée professeur de classe exceptionnelle depuis 2006. Elle a publié de nombreux articles sur la biologie moléculaire et cellulaire de la bactérie pathogène Listeria monocytogenes. Ses contributions majeures au domaine des interactions hôtes-pathogènes notamment comment la listeria parvient à passer la paroi intestinale lui ont valu de nombreuses distinctions nationales et internationales[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascale Cossart (née Gheerbrant) est originaire du Nord. Elle est née à Cambrai en 1948 et a vécu ses premières années à Arras. Issue d'une famille d'industriels, Pascale Cossart a le coup de foudre pour la science au lycée. Elle étudie la chimie à Lille où elle décroche une maîtrise ès sciences. En 1971 elle obtient un Master of Science de l'université de Georgetown puis, en 1977, un doctorat ès sciences sous la direction de Georges Cohen à l'université Paris-VII. 
+Pascale Cossart a été directrice d'une unité de recherche à l'Institut Pasteur à partir de 1991 et nommée professeur de classe exceptionnelle depuis 2006. Elle a publié de nombreux articles sur la biologie moléculaire et cellulaire de la bactérie pathogène Listeria monocytogenes. Ses contributions majeures au domaine des interactions hôtes-pathogènes notamment comment la listeria parvient à passer la paroi intestinale lui ont valu de nombreuses distinctions nationales et internationales.
 Parmi les principaux jalons de sa carrière scientifique, on peut citer :
 en 1987, la découverte du premier facteur de virulence de Listeria monocytogenes, la listériolysine O (en) (LLO),
 en 1991 et 1995, la mise en évidence de l'internaline (InlA) et d'InlB, deux protéines de surface de Listeria monocytogenes permettant l'entrée de cette bactérie dans les cellules humaines,
@@ -551,7 +565,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre de l’EMBO (1995)
 Membre de l’Academia Europaea (1998)
@@ -599,20 +615,22 @@
           <t>Principaux prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Unesco Carlos J. Finlay pour la microbiologie, UNESCO (1995)
 Médaille Louis-Rapkine (1997)
 Prix L’Oreal-UNESCO pour les femmes et la science (1998)
-Prix Richard-Lounsbery de l'Académie des sciences et de la Académie nationale des sciences (1998)[4]
+Prix Richard-Lounsbery de l'Académie des sciences et de la Académie nationale des sciences (1998)
 Médaille d’or Louis Pasteur de la Société suédoise de médecine (2000)
 Prix de recherche Nestlé "L’homme et sa nutrition" (2000)
 Prix Valade Senior de la Fondation de France (2003)
 Prix de recherche fondamentale de l'Inserm (2005)
-Médaille prestige de l’Institut Cochin (2006)[5]
+Médaille prestige de l’Institut Cochin (2006)
 Prix Robert-Koch (2007)
 Prix René-Descartes for collaborative transnational research, Bruxelles, (2008)
-Prix Louis-Jeantet de médecine (2008)[6]
+Prix Louis-Jeantet de médecine (2008)
 Prix Balzan (2013)
 Helmoltz International Fellow Award, Berlin, Allemagne, (2013)
 H.P.R. Seeliger Award, Wurtzbourg, Allemagne (2013)
@@ -649,10 +667,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grande officière de la Légion d'honneur en 2020[7] (commandeure en 2013[8], officière en 2007).
- Commandeure de l'ordre national du Mérite en 2010[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grande officière de la Légion d'honneur en 2020 (commandeure en 2013, officière en 2007).
+ Commandeure de l'ordre national du Mérite en 2010.</t>
         </is>
       </c>
     </row>
